--- a/biology/Botanique/Ludisia_discolor/Ludisia_discolor.xlsx
+++ b/biology/Botanique/Ludisia_discolor/Ludisia_discolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludisia discolor, appelé en anglais jewel orchid, est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) originaire de Malaisie, Indonésie et Birmanie. C'est une orchidée terrestre, ce qui signifie qu'elle grandit dans le sol ou milieux similaires. Dans leur environnement naturel, ces orchidées peuvent être trouvées poussant dans les sols de forêt. Elles sont connues pour leur feuillage, à l'aspect de velours, des feuilles d'un marron intense avec des nervures rouges.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Haemaria discolor
 Goodyera discolor</t>
@@ -542,7 +556,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe deux variétés :
 Ludisia discolor alba, une variété albinos
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fleurit généralement de décembre à février (hiver - début du printemps). Les fleurs sont blanches avec un gynostème jaune et torsadé. Les fleurs individuelles sont petites mais poussent en groupe sur un pédoncule vertical. Les fleurs s'ouvrent à tout moment entre décembre et février et durent un mois ou plus.
 L'espèce Ludisia discolor tolère un environnement tempéré à tropical. Elle a besoin de beaucoup d'humidité et de chaleur. À cause de cette préférence de température, elle peut pousser en pot ou en terrarium.
